--- a/fantasy/output/delta_fantasy_2019_per.xlsx
+++ b/fantasy/output/delta_fantasy_2019_per.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerkardash/Data/sports/fantasy/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C31FF76F-B9F9-B840-B335-034A0747017B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B8CB1F-94C1-8742-8C03-35C66AAFD929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2400" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="-24840" yWindow="6100" windowWidth="22260" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delta_fantasy_2019_per" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1411,18 +1411,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F272">
     <sortCondition descending="1" ref="E1:E1048576"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Player"/>
-    <tableColumn id="2" name="Pos"/>
-    <tableColumn id="3" name="Fantasy Ranking"/>
-    <tableColumn id="4" name="Z-Score Ranking"/>
-    <tableColumn id="5" name="Z Total"/>
-    <tableColumn id="6" name="Difference"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Player"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pos"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fantasy Ranking"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Z-Score Ranking"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Z Total"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Difference"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
